--- a/Packet/PacketData/Equip.xlsx
+++ b/Packet/PacketData/Equip.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t xml:space="preserve">リザルトコード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変化後の最大ＨＰ</t>
   </si>
 </sst>
 </file>
@@ -292,17 +298,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="12.83"/>
   </cols>
   <sheetData>
@@ -426,6 +432,20 @@
       </c>
       <c r="D10" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
